--- a/gptables/test/test_api/test_end_to_end.xlsx
+++ b/gptables/test/test_api/test_end_to_end.xlsx
@@ -640,7 +640,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -689,9 +689,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -758,8 +758,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
